--- a/PopulationModeling/PopulationProjectGraphs.xlsx
+++ b/PopulationModeling/PopulationProjectGraphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cag10\OneDrive\Desktop\MathematicalModels\PopulationModeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Towson\SeniorYear\FallSemester\MATH377\MathematicalModels\PopulationModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C5425B-F169-46F9-8D18-9EE1ECBE0D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C4837-8E85-44DA-8E1F-0D93BC3D75D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4613FAD3-24D1-4C69-977E-63F0B20BB996}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{4613FAD3-24D1-4C69-977E-63F0B20BB996}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,52 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>},</t>
-  </si>
-  <si>
-    <t>GridBoxAlignment-&gt;{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     "Columns" -&gt; {{Center}}, "ColumnsIndexed" -&gt; {}, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "Rows" -&gt; {{Baseline}}, "RowsIndexed" -&gt; {}},</t>
-  </si>
-  <si>
-    <t>GridBoxSpacings-&gt;{"Columns" -&gt; {</t>
-  </si>
-  <si>
-    <t>Offset[0.27999999999999997`], {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offset[0.5599999999999999]}, </t>
-  </si>
-  <si>
-    <t>Offset[0.27999999999999997`]}, "ColumnsIndexed" -&gt; {}, "Rows" -&gt; {</t>
-  </si>
-  <si>
-    <t>Offset[0.2], {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offset[0.4]}, </t>
-  </si>
-  <si>
-    <t>Offset[0.2]}, "RowsIndexed" -&gt; {}}],</t>
-  </si>
-  <si>
-    <t>Column]\)</t>
-  </si>
-  <si>
-    <t>27.599999999999998`</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>0-1yearold</t>
   </si>
@@ -96,286 +51,97 @@
     <t>5-6yearold</t>
   </si>
   <si>
-    <t>43.004`</t>
+    <t>Year0</t>
   </si>
   <si>
-    <t>36.407`</t>
+    <t>Year1</t>
   </si>
   <si>
-    <t>37.632`</t>
+    <t>Year2</t>
   </si>
   <si>
-    <t>41.03999999999999`</t>
+    <t>Year3</t>
   </si>
   <si>
-    <t>26.220000000000002`</t>
+    <t>Year4</t>
   </si>
   <si>
-    <t>38.060740.044840.458233.203232.890422.6541</t>
+    <t>Year5</t>
   </si>
   <si>
-    <t>41.810337.299538.443138.435330.546919.7342</t>
+    <t>Year6</t>
   </si>
   <si>
-    <t>41.052540.974135.807536.520935.360418.3282</t>
+    <t>Year7</t>
   </si>
   <si>
-    <t>38.818440.231439.335134.017233.599221.2163</t>
+    <t>Year8</t>
   </si>
   <si>
-    <t>41.087738.04238.622237.368431.295820.1595</t>
+    <t>Year9</t>
   </si>
   <si>
-    <t>41.034340.26636.520336.69134.378918.7775</t>
+    <t>Year10</t>
   </si>
   <si>
-    <t>39.373140.213738.655334.694333.755820.6273</t>
+    <t>Year11</t>
   </si>
   <si>
-    <t>40.678138.585638.605136.722631.918820.2535</t>
+    <t>Year12</t>
   </si>
   <si>
-    <t>40.929639.864537.042236.674933.784819.1513</t>
+    <t>Year13</t>
   </si>
   <si>
-    <t>39.759340.11138.2735.190133.740920.2709</t>
+    <t>Year14</t>
   </si>
   <si>
-    <t>40.461838.964138.506636.356532.374920.2445</t>
+    <t>Year15</t>
   </si>
   <si>
-    <t>40.80439.652537.405536.581233.447919.4249</t>
+    <t>Year16</t>
   </si>
   <si>
-    <t>40.016339.987938.066435.535233.654720.0688</t>
+    <t>Year17</t>
   </si>
   <si>
-    <t>40.359339.21638.388436.163132.692420.1928</t>
+    <t>Year18</t>
   </si>
   <si>
-    <t>40.688539.552237.647436.46933.270119.6155</t>
+    <t>Year19</t>
   </si>
   <si>
-    <t>40.180339.874737.970135.76533.551519.962</t>
+    <t>Year20</t>
   </si>
   <si>
-    <t>40.320339.376738.279736.071632.903820.1309</t>
+    <t>Year21</t>
   </si>
   <si>
-    <t>40.594539.513937.801736.365733.185819.7423</t>
+    <t>Year22</t>
   </si>
   <si>
-    <t>40.280539.782637.933335.911633.456519.9115</t>
+    <t>Year23</t>
   </si>
   <si>
-    <t>40.313839.474838.191336.036733.038720.0739</t>
+    <t>Year24</t>
   </si>
   <si>
-    <t>40.523639.507537.895936.281733.153719.8232</t>
+    <t>Year25</t>
   </si>
   <si>
-    <t>40.338539.713137.927236.001133.379219.8922</t>
+    <t>Year26</t>
   </si>
   <si>
-    <t>40.321939.531838.124636.030833.12120.0275</t>
+    <t>Year27</t>
   </si>
   <si>
-    <t>40.473139.515437.950536.218433.148419.8726</t>
+    <t>Year28</t>
   </si>
   <si>
-    <t>40.370239.663637.934836.05333.320919.889</t>
+    <t>Year29</t>
   </si>
   <si>
-    <t>40.334939.562838.077136.038133.168719.9925</t>
-  </si>
-  <si>
-    <t>40.438739.528237.980236.173233.15519.9012</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>Year 6</t>
-  </si>
-  <si>
-    <t>Year 12</t>
-  </si>
-  <si>
-    <t>Year 13</t>
-  </si>
-  <si>
-    <t>Year 14</t>
-  </si>
-  <si>
-    <t>Year 15</t>
-  </si>
-  <si>
-    <t>Year 16</t>
-  </si>
-  <si>
-    <t>Year 17</t>
-  </si>
-  <si>
-    <t>Year 18</t>
-  </si>
-  <si>
-    <t>Year 19</t>
-  </si>
-  <si>
-    <t>Year 20</t>
-  </si>
-  <si>
-    <t>Year 21</t>
-  </si>
-  <si>
-    <t>Year 22</t>
-  </si>
-  <si>
-    <t>Year 23</t>
-  </si>
-  <si>
-    <t>Year 24</t>
-  </si>
-  <si>
-    <t>Year 25</t>
-  </si>
-  <si>
-    <t>Year 26</t>
-  </si>
-  <si>
-    <t>Year 27</t>
-  </si>
-  <si>
-    <t>Year 28</t>
-  </si>
-  <si>
-    <t>Year 29</t>
-  </si>
-  <si>
-    <t>Year 30</t>
-  </si>
-  <si>
-    <t>Year 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {40.8621},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {42.1439},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {34.9507},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {35.7504},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {37.7568},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {15.732}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {38.0607},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {40.0448},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {40.4582},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {33.2032},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {32.8904},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {22.6541}</t>
-  </si>
-  <si>
-    <t>{"41.810306733999994`"},</t>
-  </si>
-  <si>
-    <t>{"37.299515792`"},</t>
-  </si>
-  <si>
-    <t>{"38.443054272`"},</t>
-  </si>
-  <si>
-    <t>{"38.435255039999994`"},</t>
-  </si>
-  <si>
-    <t>{"30.546929279999993`"},</t>
-  </si>
-  <si>
-    <t>{"19.7342208`"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {41.0525},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {40.9741},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {35.8075},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {36.5209},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {35.3604},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {18.3282}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {38.8184},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {40.2314},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {39.3351},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {34.0172},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {33.5992},</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {21.2163}</t>
-  </si>
-  <si>
-    <t>{"41.08773973316791`"},</t>
-  </si>
-  <si>
-    <t>{"38.04202757225063`"},</t>
-  </si>
-  <si>
-    <t>{"38.622154867602426`"},</t>
-  </si>
-  <si>
-    <t>{"37.36837974657983`"},</t>
-  </si>
-  <si>
-    <t>{"31.29578573011968`"},</t>
-  </si>
-  <si>
-    <t>{"20.159537660236797`"}</t>
+    <t>Year30</t>
   </si>
 </sst>
 </file>
@@ -513,36 +279,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$AF$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -556,17 +397,92 @@
                   <c:v>40.862099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.15</c:v>
+                  <c:v>38.060699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41.810306733999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.052460531039998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.818399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.087739733167901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.034300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.373100000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.929600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.759300000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.461799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.016300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.359339743210398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.688484841627997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.180300000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.320300000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.280500000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.313800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.523600000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.338500000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.321899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.473100000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.370199999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.334899999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.438699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000000-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -596,36 +512,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$AF$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -639,17 +630,92 @@
                   <c:v>42.143900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>40.044800000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>37.299515792000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.974100599319897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.231400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.042027572250603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.265999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.213700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.585599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.8645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.110999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.964100000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.652500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.987900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.216008387012202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.552152948346198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.874699999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.3767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.5139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.782600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.474800000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.5075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.713099999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.531799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.5154</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.663600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.562800000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.528199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000001-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -679,36 +745,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$AF$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -722,17 +863,92 @@
                   <c:v>34.950699999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.2</c:v>
+                  <c:v>40.458199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.443054271999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.807535160320001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.335099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.622154867602397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.520299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.655299999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.6051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.042200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.506599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.405500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.066400000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.388430663998903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.647368051531799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.970100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.279699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.801699999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.933300000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.191299999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.895899999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.927199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.124600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.950499999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.934800000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.077100000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.980200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000002-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,36 +978,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$B$5:$AF$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -805,17 +1096,92 @@
                   <c:v>35.750399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5</c:v>
+                  <c:v>33.203200000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.435255039999902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.520901558399999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.017200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.368379746579798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.691000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.694299999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.7226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.674900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.190100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.356499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.581200000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.535200000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.163098616690199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.469009130799002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.071599999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.365699999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.9116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.036700000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.281700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.001100000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.218400000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.0381</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.173200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000003-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -845,36 +1211,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$B$6:$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -888,17 +1329,92 @@
                   <c:v>37.756799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>32.8904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30.546929279999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.360434636799901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.599200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.295785730119601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.378900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.755800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.918800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.784799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.740900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.374899999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.447899999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.654699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.692419251706298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.270050727354999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.551499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.903799999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.1858</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.456499999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.038699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.153700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.379199999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.121000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.148400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.320900000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.168700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.155000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000004-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -928,36 +1444,111 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Year 0</c:v>
+                  <c:v>Year0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Year 1</c:v>
+                  <c:v>Year1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Year 2</c:v>
+                  <c:v>Year2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Year 3</c:v>
+                  <c:v>Year3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Year 4</c:v>
+                  <c:v>Year4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Year 5</c:v>
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:f>Sheet1!$B$7:$AF$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -971,17 +1562,92 @@
                   <c:v>15.731999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>22.6541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19.734220799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.328157567999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.2163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.159537660236701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.7775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.627300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.253499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.151299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.270900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.244499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.424900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.192842949576999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.615451551023799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.1309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.7423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.9115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.073899999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.8232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.892199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0275</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.872599999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.9925</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.901199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9A16-4DF5-B54C-4C43809284C8}"/>
+              <c16:uniqueId val="{00000005-A9DF-4C5A-8E29-0BBBE432BE63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -995,11 +1661,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="495249712"/>
-        <c:axId val="495249392"/>
+        <c:axId val="481730944"/>
+        <c:axId val="481603016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="495249712"/>
+        <c:axId val="481730944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495249392"/>
+        <c:crossAx val="481603016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495249392"/>
+        <c:axId val="481603016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1767,1675 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495249712"/>
+        <c:crossAx val="481730944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-1yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.862099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.060699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.810306733999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.052460531039998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.818399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.087739733167901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.034300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.373100000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.929600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.759300000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.461799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.804000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.016300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.359339743210398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.688484841627997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.180300000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.320300000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.280500000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.313800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.523600000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.338500000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.321899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.473100000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.370199999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.334899999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.438699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1-2yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AF$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.143900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.044800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.299515792000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.974100599319897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.231400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.042027572250603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.265999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.213700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.585599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.8645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.110999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.964100000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.652500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.987900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.216008387012202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.552152948346198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.874699999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.3767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.5139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.782600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.474800000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.5075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.713099999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.531799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.5154</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.663600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.562800000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.528199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2-3yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$AF$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.950699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.458199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.443054271999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.807535160320001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.335099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.622154867602397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.520299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.655299999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.6051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.042200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.506599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.405500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.066400000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.388430663998903</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.647368051531799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.970100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.279699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.801699999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.933300000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.191299999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.895899999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.927199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.124600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.950499999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.934800000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.077100000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.980200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3-4yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.750399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.203200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.435255039999902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.520901558399999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.017200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.368379746579798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.691000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.694299999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.7226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.674900000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.190100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.356499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.581200000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.535200000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.163098616690199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.469009130799002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.071599999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.365699999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.9116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.036700000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.281700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.001100000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.218400000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.0381</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.173200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-5yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.756799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.8904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.546929279999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.360434636799901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.599200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.295785730119601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.378900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.755800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.918800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.784799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.740900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.374899999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.447899999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.654699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.692419251706298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.270050727354999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.551499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.903799999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.1858</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.456499999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.038699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.153700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.379199999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.121000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.148400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.320900000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.168700000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.155000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5-6yearold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Year0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Year10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Year11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Year12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Year13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Year14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Year15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Year16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Year17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Year18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Year19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Year20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Year21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Year22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Year23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Year24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Year25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Year26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Year27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Year28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Year29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Year30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.734220799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.328157567999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.2163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.159537660236701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.7775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.627300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.253499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.151299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.270900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.244499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.424900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.192842949576999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.615451551023799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.1309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.7423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.9115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.073899999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.8232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.892199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0275</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.872599999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.9925</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.901199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8994-499C-8602-79119A0120C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="493876024"/>
+        <c:axId val="493879304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493876024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493879304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493879304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493876024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1228,6 +3562,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1733,27 +4107,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550068</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>260349</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>588168</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>325966</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACDABB0-BA8B-43E6-B369-A21525783235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CC50CD-B13C-4610-82CA-017E222AE47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,6 +4656,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484717</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>503766</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07EDE75-7D85-42C1-AD2C-176A7D370F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2071,106 +4997,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5B6FA1-1032-4F8D-89B9-CE6A41533FF7}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M7"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection sqref="A1:AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2185,33 +5117,90 @@
         <v>40.862099999999998</v>
       </c>
       <c r="F2">
-        <v>37.15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
+        <v>38.060699999999997</v>
+      </c>
+      <c r="G2">
+        <v>41.810306733999901</v>
+      </c>
+      <c r="H2">
+        <v>41.052460531039998</v>
+      </c>
+      <c r="I2">
+        <v>38.818399999999997</v>
+      </c>
+      <c r="J2">
+        <v>41.087739733167901</v>
+      </c>
+      <c r="K2">
+        <v>41.034300000000002</v>
+      </c>
+      <c r="L2">
+        <v>39.373100000000001</v>
+      </c>
+      <c r="M2">
+        <v>40.678100000000001</v>
+      </c>
+      <c r="N2">
+        <v>40.929600000000001</v>
+      </c>
+      <c r="O2">
+        <v>39.759300000000003</v>
+      </c>
+      <c r="P2">
+        <v>40.461799999999997</v>
+      </c>
+      <c r="Q2">
+        <v>40.804000000000002</v>
+      </c>
+      <c r="R2">
+        <v>40.016300000000001</v>
+      </c>
+      <c r="S2">
+        <v>40.359339743210398</v>
+      </c>
+      <c r="T2">
+        <v>40.688484841627997</v>
+      </c>
+      <c r="U2">
+        <v>40.180300000000003</v>
+      </c>
+      <c r="V2">
+        <v>40.320300000000003</v>
+      </c>
+      <c r="W2">
+        <v>40.594499999999996</v>
+      </c>
+      <c r="X2">
+        <v>40.280500000000004</v>
+      </c>
+      <c r="Y2">
+        <v>40.313800000000001</v>
+      </c>
+      <c r="Z2">
+        <v>40.523600000000002</v>
+      </c>
+      <c r="AA2">
+        <v>40.338500000000003</v>
+      </c>
+      <c r="AB2">
+        <v>40.321899999999999</v>
+      </c>
+      <c r="AC2">
+        <v>40.473100000000002</v>
+      </c>
+      <c r="AD2">
+        <v>40.370199999999997</v>
+      </c>
+      <c r="AE2">
+        <v>40.334899999999998</v>
+      </c>
+      <c r="AF2">
+        <v>40.438699999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -2226,33 +5215,90 @@
         <v>42.143900000000002</v>
       </c>
       <c r="F3">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" t="s">
-        <v>110</v>
+        <v>40.044800000000002</v>
+      </c>
+      <c r="G3">
+        <v>37.299515792000001</v>
+      </c>
+      <c r="H3">
+        <v>40.974100599319897</v>
+      </c>
+      <c r="I3">
+        <v>40.231400000000001</v>
+      </c>
+      <c r="J3">
+        <v>38.042027572250603</v>
+      </c>
+      <c r="K3">
+        <v>40.265999999999998</v>
+      </c>
+      <c r="L3">
+        <v>40.213700000000003</v>
+      </c>
+      <c r="M3">
+        <v>38.585599999999999</v>
+      </c>
+      <c r="N3">
+        <v>39.8645</v>
+      </c>
+      <c r="O3">
+        <v>40.110999999999997</v>
+      </c>
+      <c r="P3">
+        <v>38.964100000000002</v>
+      </c>
+      <c r="Q3">
+        <v>39.652500000000003</v>
+      </c>
+      <c r="R3">
+        <v>39.987900000000003</v>
+      </c>
+      <c r="S3">
+        <v>39.216008387012202</v>
+      </c>
+      <c r="T3">
+        <v>39.552152948346198</v>
+      </c>
+      <c r="U3">
+        <v>39.874699999999997</v>
+      </c>
+      <c r="V3">
+        <v>39.3767</v>
+      </c>
+      <c r="W3">
+        <v>39.5139</v>
+      </c>
+      <c r="X3">
+        <v>39.782600000000002</v>
+      </c>
+      <c r="Y3">
+        <v>39.474800000000002</v>
+      </c>
+      <c r="Z3">
+        <v>39.5075</v>
+      </c>
+      <c r="AA3">
+        <v>39.713099999999997</v>
+      </c>
+      <c r="AB3">
+        <v>39.531799999999997</v>
+      </c>
+      <c r="AC3">
+        <v>39.5154</v>
+      </c>
+      <c r="AD3">
+        <v>39.663600000000002</v>
+      </c>
+      <c r="AE3">
+        <v>39.562800000000003</v>
+      </c>
+      <c r="AF3">
+        <v>39.528199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -2267,33 +5313,90 @@
         <v>34.950699999999998</v>
       </c>
       <c r="F4">
-        <v>43.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" t="s">
-        <v>111</v>
+        <v>40.458199999999998</v>
+      </c>
+      <c r="G4">
+        <v>38.443054271999998</v>
+      </c>
+      <c r="H4">
+        <v>35.807535160320001</v>
+      </c>
+      <c r="I4">
+        <v>39.335099999999997</v>
+      </c>
+      <c r="J4">
+        <v>38.622154867602397</v>
+      </c>
+      <c r="K4">
+        <v>36.520299999999999</v>
+      </c>
+      <c r="L4">
+        <v>38.655299999999997</v>
+      </c>
+      <c r="M4">
+        <v>38.6051</v>
+      </c>
+      <c r="N4">
+        <v>37.042200000000001</v>
+      </c>
+      <c r="O4">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="P4">
+        <v>38.506599999999999</v>
+      </c>
+      <c r="Q4">
+        <v>37.405500000000004</v>
+      </c>
+      <c r="R4">
+        <v>38.066400000000002</v>
+      </c>
+      <c r="S4">
+        <v>38.388430663998903</v>
+      </c>
+      <c r="T4">
+        <v>37.647368051531799</v>
+      </c>
+      <c r="U4">
+        <v>37.970100000000002</v>
+      </c>
+      <c r="V4">
+        <v>38.279699999999998</v>
+      </c>
+      <c r="W4">
+        <v>37.801699999999997</v>
+      </c>
+      <c r="X4">
+        <v>37.933300000000003</v>
+      </c>
+      <c r="Y4">
+        <v>38.191299999999998</v>
+      </c>
+      <c r="Z4">
+        <v>37.895899999999997</v>
+      </c>
+      <c r="AA4">
+        <v>37.927199999999999</v>
+      </c>
+      <c r="AB4">
+        <v>38.124600000000001</v>
+      </c>
+      <c r="AC4">
+        <v>37.950499999999998</v>
+      </c>
+      <c r="AD4">
+        <v>37.934800000000003</v>
+      </c>
+      <c r="AE4">
+        <v>38.077100000000002</v>
+      </c>
+      <c r="AF4">
+        <v>37.980200000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -2308,33 +5411,90 @@
         <v>35.750399999999999</v>
       </c>
       <c r="F5">
-        <v>28.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" t="s">
-        <v>112</v>
+        <v>33.203200000000002</v>
+      </c>
+      <c r="G5">
+        <v>38.435255039999902</v>
+      </c>
+      <c r="H5">
+        <v>36.520901558399999</v>
+      </c>
+      <c r="I5">
+        <v>34.017200000000003</v>
+      </c>
+      <c r="J5">
+        <v>37.368379746579798</v>
+      </c>
+      <c r="K5">
+        <v>36.691000000000003</v>
+      </c>
+      <c r="L5">
+        <v>34.694299999999998</v>
+      </c>
+      <c r="M5">
+        <v>36.7226</v>
+      </c>
+      <c r="N5">
+        <v>36.674900000000001</v>
+      </c>
+      <c r="O5">
+        <v>35.190100000000001</v>
+      </c>
+      <c r="P5">
+        <v>36.356499999999997</v>
+      </c>
+      <c r="Q5">
+        <v>36.581200000000003</v>
+      </c>
+      <c r="R5">
+        <v>35.535200000000003</v>
+      </c>
+      <c r="S5">
+        <v>36.163098616690199</v>
+      </c>
+      <c r="T5">
+        <v>36.469009130799002</v>
+      </c>
+      <c r="U5">
+        <v>35.765000000000001</v>
+      </c>
+      <c r="V5">
+        <v>36.071599999999997</v>
+      </c>
+      <c r="W5">
+        <v>36.365699999999997</v>
+      </c>
+      <c r="X5">
+        <v>35.9116</v>
+      </c>
+      <c r="Y5">
+        <v>36.036700000000003</v>
+      </c>
+      <c r="Z5">
+        <v>36.281700000000001</v>
+      </c>
+      <c r="AA5">
+        <v>36.001100000000001</v>
+      </c>
+      <c r="AB5">
+        <v>36.030799999999999</v>
+      </c>
+      <c r="AC5">
+        <v>36.218400000000003</v>
+      </c>
+      <c r="AD5">
+        <v>36.052999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>36.0381</v>
+      </c>
+      <c r="AF5">
+        <v>36.173200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -2349,33 +5509,90 @@
         <v>37.756799999999998</v>
       </c>
       <c r="F6">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>113</v>
+        <v>32.8904</v>
+      </c>
+      <c r="G6">
+        <v>30.546929279999901</v>
+      </c>
+      <c r="H6">
+        <v>35.360434636799901</v>
+      </c>
+      <c r="I6">
+        <v>33.599200000000003</v>
+      </c>
+      <c r="J6">
+        <v>31.295785730119601</v>
+      </c>
+      <c r="K6">
+        <v>34.378900000000002</v>
+      </c>
+      <c r="L6">
+        <v>33.755800000000001</v>
+      </c>
+      <c r="M6">
+        <v>31.918800000000001</v>
+      </c>
+      <c r="N6">
+        <v>33.784799999999997</v>
+      </c>
+      <c r="O6">
+        <v>33.740900000000003</v>
+      </c>
+      <c r="P6">
+        <v>32.374899999999997</v>
+      </c>
+      <c r="Q6">
+        <v>33.447899999999997</v>
+      </c>
+      <c r="R6">
+        <v>33.654699999999998</v>
+      </c>
+      <c r="S6">
+        <v>32.692419251706298</v>
+      </c>
+      <c r="T6">
+        <v>33.270050727354999</v>
+      </c>
+      <c r="U6">
+        <v>33.551499999999997</v>
+      </c>
+      <c r="V6">
+        <v>32.903799999999997</v>
+      </c>
+      <c r="W6">
+        <v>33.1858</v>
+      </c>
+      <c r="X6">
+        <v>33.456499999999998</v>
+      </c>
+      <c r="Y6">
+        <v>33.038699999999999</v>
+      </c>
+      <c r="Z6">
+        <v>33.153700000000001</v>
+      </c>
+      <c r="AA6">
+        <v>33.379199999999997</v>
+      </c>
+      <c r="AB6">
+        <v>33.121000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>33.148400000000002</v>
+      </c>
+      <c r="AD6">
+        <v>33.320900000000002</v>
+      </c>
+      <c r="AE6">
+        <v>33.168700000000001</v>
+      </c>
+      <c r="AF6">
+        <v>33.155000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2390,251 +5607,85 @@
         <v>15.731999999999999</v>
       </c>
       <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>52</v>
+        <v>22.6541</v>
+      </c>
+      <c r="G7">
+        <v>19.734220799999999</v>
+      </c>
+      <c r="H7">
+        <v>18.328157567999899</v>
+      </c>
+      <c r="I7">
+        <v>21.2163</v>
+      </c>
+      <c r="J7">
+        <v>20.159537660236701</v>
+      </c>
+      <c r="K7">
+        <v>18.7775</v>
+      </c>
+      <c r="L7">
+        <v>20.627300000000002</v>
+      </c>
+      <c r="M7">
+        <v>20.253499999999999</v>
+      </c>
+      <c r="N7">
+        <v>19.151299999999999</v>
+      </c>
+      <c r="O7">
+        <v>20.270900000000001</v>
+      </c>
+      <c r="P7">
+        <v>20.244499999999999</v>
+      </c>
+      <c r="Q7">
+        <v>19.424900000000001</v>
+      </c>
+      <c r="R7">
+        <v>20.0688</v>
+      </c>
+      <c r="S7">
+        <v>20.192842949576999</v>
+      </c>
+      <c r="T7">
+        <v>19.615451551023799</v>
+      </c>
+      <c r="U7">
+        <v>19.962</v>
+      </c>
+      <c r="V7">
+        <v>20.1309</v>
+      </c>
+      <c r="W7">
+        <v>19.7423</v>
+      </c>
+      <c r="X7">
+        <v>19.9115</v>
+      </c>
+      <c r="Y7">
+        <v>20.073899999999998</v>
+      </c>
+      <c r="Z7">
+        <v>19.8232</v>
+      </c>
+      <c r="AA7">
+        <v>19.892199999999999</v>
+      </c>
+      <c r="AB7">
+        <v>20.0275</v>
+      </c>
+      <c r="AC7">
+        <v>19.872599999999998</v>
+      </c>
+      <c r="AD7">
+        <v>19.888999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>19.9925</v>
+      </c>
+      <c r="AF7">
+        <v>19.901199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/PopulationModeling/PopulationProjectGraphs.xlsx
+++ b/PopulationModeling/PopulationProjectGraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Towson\SeniorYear\FallSemester\MATH377\MathematicalModels\PopulationModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C4837-8E85-44DA-8E1F-0D93BC3D75D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9EF99-65A8-45D4-8989-AA997DDFCD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{4613FAD3-24D1-4C69-977E-63F0B20BB996}"/>
   </bookViews>
@@ -217,6 +217,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Luvmee Population</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,6 +1894,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Luvmee Population</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4999,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5B6FA1-1032-4F8D-89B9-CE6A41533FF7}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection sqref="A1:AF7"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
